--- a/data/trans_orig/P29A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A3D60CA-F63A-4365-B8B9-18CF6152794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BC8233-48C6-4695-887A-286E1A0915DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8789C295-F9FE-4E2F-B4CC-F7CD10F8833E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87398777-B30C-4DB5-8188-EFB95A005531}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="412">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>96,85%</t>
   </si>
   <si>
-    <t>89,84%</t>
+    <t>89,27%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,16 +86,16 @@
     <t>94,07%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>79,81%</t>
   </si>
   <si>
     <t>96,02%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>10,16%</t>
+    <t>10,73%</t>
   </si>
   <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>20,19%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,55 +134,55 @@
     <t>96,63%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>90,32%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -191,7 +191,7 @@
     <t>97,63%</t>
   </si>
   <si>
-    <t>95,77%</t>
+    <t>96,07%</t>
   </si>
   <si>
     <t>98,73%</t>
@@ -200,1093 +200,1081 @@
     <t>92,11%</t>
   </si>
   <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
     <t>88,38%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>17,38%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>62,4%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E14D68F-547D-4D28-B1AE-4BA152862E0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AED6BC6-C821-49D1-BDD0-D8A70D43CB1A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2478,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2481,13 @@
         <v>17867</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2508,13 +2496,13 @@
         <v>10818</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2523,13 +2511,13 @@
         <v>28686</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2585,13 @@
         <v>1776095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>805</v>
@@ -2612,13 +2600,13 @@
         <v>823855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2550</v>
@@ -2627,13 +2615,13 @@
         <v>2599950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2636,13 @@
         <v>60869</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2663,13 +2651,13 @@
         <v>52747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2678,13 +2666,13 @@
         <v>113616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,7 +2728,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +2749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8CB932-9643-4DB3-95FC-010E8DC2FAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14254CDA-BDA1-464C-A6A7-D8FC27314EDF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2778,7 +2766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2885,10 +2873,10 @@
         <v>62847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2900,10 +2888,10 @@
         <v>26012</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2915,13 +2903,13 @@
         <v>88858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2924,13 @@
         <v>1809</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -2951,13 +2939,13 @@
         <v>2032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2966,13 +2954,13 @@
         <v>3841</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3028,13 @@
         <v>319408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -3055,13 +3043,13 @@
         <v>122351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>416</v>
@@ -3070,13 +3058,13 @@
         <v>441759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3079,13 @@
         <v>9786</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>18</v>
@@ -3106,13 +3094,13 @@
         <v>20157</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -3121,13 +3109,13 @@
         <v>29943</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3183,13 @@
         <v>538908</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
@@ -3210,13 +3198,13 @@
         <v>247323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>722</v>
@@ -3225,13 +3213,13 @@
         <v>786232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3234,13 @@
         <v>13438</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -3261,13 +3249,13 @@
         <v>25143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -3276,13 +3264,13 @@
         <v>38580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3338,13 @@
         <v>402391</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -3365,13 +3353,13 @@
         <v>178894</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
@@ -3380,13 +3368,13 @@
         <v>581285</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3389,13 @@
         <v>18809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3416,13 +3404,13 @@
         <v>10163</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3431,13 +3419,13 @@
         <v>28972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3493,13 @@
         <v>514274</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -3520,13 +3508,13 @@
         <v>320323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
@@ -3535,13 +3523,13 @@
         <v>834597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3544,13 @@
         <v>10694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -3571,13 +3559,13 @@
         <v>31339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -3586,13 +3574,13 @@
         <v>42033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3648,13 @@
         <v>1837828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>822</v>
@@ -3675,13 +3663,13 @@
         <v>894904</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>2552</v>
@@ -3690,13 +3678,13 @@
         <v>2732732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3699,13 @@
         <v>54536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -3726,13 +3714,13 @@
         <v>88834</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -3741,13 +3729,13 @@
         <v>143370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,7 +3791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3824,7 +3812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E90DF6-D6A3-4E87-9427-B72B9D8D19B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E844A907-3339-4135-9535-820BC849226E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,7 +3829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3951,7 +3939,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -3963,10 +3951,10 @@
         <v>32152</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3978,10 +3966,10 @@
         <v>115272</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -4002,10 +3990,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4014,13 +4002,13 @@
         <v>2398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4029,13 +4017,13 @@
         <v>2398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4091,13 @@
         <v>307496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -4118,13 +4106,13 @@
         <v>142479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>439</v>
@@ -4133,13 +4121,13 @@
         <v>449974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4142,13 @@
         <v>7336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4169,13 +4157,13 @@
         <v>3777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -4184,13 +4172,13 @@
         <v>11113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4246,13 @@
         <v>536327</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -4273,13 +4261,13 @@
         <v>293422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>776</v>
@@ -4288,13 +4276,13 @@
         <v>829748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4297,13 @@
         <v>8017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4324,13 +4312,13 @@
         <v>12774</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4339,7 +4327,7 @@
         <v>20792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>261</v>
@@ -4416,10 +4404,10 @@
         <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
@@ -4428,13 +4416,13 @@
         <v>216167</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>573</v>
@@ -4443,10 +4431,10 @@
         <v>621548</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>270</v>
@@ -4470,7 +4458,7 @@
         <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4479,13 +4467,13 @@
         <v>5853</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -4494,13 +4482,13 @@
         <v>9984</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,7 +4574,7 @@
         <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>283</v>
@@ -4640,7 +4628,7 @@
         <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4723,10 +4711,10 @@
         <v>1878007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>296</v>
@@ -4753,13 +4741,13 @@
         <v>2949993</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4762,13 @@
         <v>24517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -4789,13 +4777,13 @@
         <v>31194</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -4804,13 +4792,13 @@
         <v>55711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4887,7 +4875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7009A6E9-3A5A-45A7-8E04-DDEE52013CE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5ABB3B-1B84-456B-9E0C-0CA2DE240598}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4904,7 +4892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5011,13 +4999,13 @@
         <v>46741</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5026,13 +5014,13 @@
         <v>26779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -5041,13 +5029,13 @@
         <v>73519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5050,13 @@
         <v>6565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5077,13 +5065,13 @@
         <v>6064</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -5092,13 +5080,13 @@
         <v>12629</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5154,13 @@
         <v>288510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -5181,13 +5169,13 @@
         <v>141028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>508</v>
@@ -5196,13 +5184,13 @@
         <v>429538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5205,13 @@
         <v>30392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5232,13 +5220,13 @@
         <v>40971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -5247,13 +5235,13 @@
         <v>71364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5309,13 @@
         <v>487308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>288</v>
@@ -5336,13 +5324,13 @@
         <v>219161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>732</v>
@@ -5351,13 +5339,13 @@
         <v>706470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5360,13 @@
         <v>152788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -5387,13 +5375,13 @@
         <v>132082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -5402,13 +5390,13 @@
         <v>284870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5464,13 @@
         <v>335492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -5491,13 +5479,13 @@
         <v>296776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>552</v>
@@ -5506,13 +5494,13 @@
         <v>632269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5515,13 @@
         <v>74142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -5542,13 +5530,13 @@
         <v>91029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>174</v>
@@ -5557,13 +5545,13 @@
         <v>165171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5619,13 @@
         <v>460652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -5646,13 +5634,13 @@
         <v>314039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -5661,13 +5649,13 @@
         <v>774691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5670,13 @@
         <v>102515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -5697,13 +5685,13 @@
         <v>142190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -5712,13 +5700,13 @@
         <v>244705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5774,13 @@
         <v>1618703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>1206</v>
@@ -5801,13 +5789,13 @@
         <v>997784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>2794</v>
@@ -5816,13 +5804,13 @@
         <v>2616487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5825,13 @@
         <v>366403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -5852,13 +5840,13 @@
         <v>412336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>809</v>
@@ -5867,13 +5855,13 @@
         <v>778738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,7 +5917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BC8233-48C6-4695-887A-286E1A0915DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A29C6F91-68CD-40C7-AC4D-C78CAD28A006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87398777-B30C-4DB5-8188-EFB95A005531}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BC45876-3BF7-4F58-824C-9AD61D7D3351}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,25 +77,25 @@
     <t>96,85%</t>
   </si>
   <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,940 +107,970 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>94,09%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>9,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2015 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
   </si>
   <si>
     <t>6,6%</t>
@@ -1686,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AED6BC6-C821-49D1-BDD0-D8A70D43CB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9E3880-8496-4409-A57B-DF1CF2E90903}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,13 +2320,13 @@
         <v>121855</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>419</v>
@@ -2305,13 +2335,13 @@
         <v>425831</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2356,13 @@
         <v>15118</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2341,13 +2371,13 @@
         <v>4275</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2356,13 +2386,13 @@
         <v>19394</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,7 +2448,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2430,13 +2460,13 @@
         <v>499317</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>278</v>
@@ -2445,13 +2475,13 @@
         <v>289118</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>804</v>
@@ -2460,13 +2490,13 @@
         <v>788434</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,13 +2511,13 @@
         <v>17867</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2496,13 +2526,13 @@
         <v>10818</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -2511,13 +2541,13 @@
         <v>28686</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2615,13 @@
         <v>1776095</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>805</v>
@@ -2600,13 +2630,13 @@
         <v>823855</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2550</v>
@@ -2615,13 +2645,13 @@
         <v>2599950</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2666,13 @@
         <v>60869</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2651,13 +2681,13 @@
         <v>52747</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>111</v>
@@ -2666,13 +2696,13 @@
         <v>113616</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,7 +2758,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14254CDA-BDA1-464C-A6A7-D8FC27314EDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B476E970-5D1A-4253-8BB2-CA52458D9D9D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2766,7 +2796,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2873,10 +2903,10 @@
         <v>62847</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2888,10 +2918,10 @@
         <v>26012</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2903,13 +2933,13 @@
         <v>88858</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,7 +2954,7 @@
         <v>1809</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -3371,10 +3401,10 @@
         <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3419,13 @@
         <v>18809</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -3404,13 +3434,13 @@
         <v>10163</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -3419,13 +3449,13 @@
         <v>28972</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,7 +3511,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3493,13 +3523,13 @@
         <v>514274</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
@@ -3508,13 +3538,13 @@
         <v>320323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
@@ -3523,13 +3553,13 @@
         <v>834597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3574,13 @@
         <v>10694</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -3559,13 +3589,13 @@
         <v>31339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -3574,13 +3604,13 @@
         <v>42033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3678,13 @@
         <v>1837828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>822</v>
@@ -3663,13 +3693,13 @@
         <v>894904</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>2552</v>
@@ -3678,13 +3708,13 @@
         <v>2732732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3729,13 @@
         <v>54536</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H20" s="7">
         <v>83</v>
@@ -3714,13 +3744,13 @@
         <v>88834</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -3729,13 +3759,13 @@
         <v>143370</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,7 +3821,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3812,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E844A907-3339-4135-9535-820BC849226E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B669DEDD-F4F3-4283-AABE-38FC22BF42E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3829,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,7 +3969,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>28</v>
@@ -3951,10 +3981,10 @@
         <v>32152</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3966,10 +3996,10 @@
         <v>115272</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3990,10 +4020,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4002,13 +4032,13 @@
         <v>2398</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -4017,13 +4047,13 @@
         <v>2398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4121,13 @@
         <v>307496</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -4106,13 +4136,13 @@
         <v>142479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>439</v>
@@ -4121,13 +4151,13 @@
         <v>449974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4172,13 @@
         <v>7336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4157,13 +4187,13 @@
         <v>3777</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -4172,13 +4202,13 @@
         <v>11113</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4276,13 @@
         <v>536327</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -4261,13 +4291,13 @@
         <v>293422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M10" s="7">
         <v>776</v>
@@ -4276,7 +4306,7 @@
         <v>829748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>254</v>
@@ -4312,13 +4342,13 @@
         <v>12774</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4327,13 +4357,13 @@
         <v>20792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>103</v>
+        <v>262</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4431,13 @@
         <v>405380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
@@ -4416,13 +4446,13 @@
         <v>216167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>573</v>
@@ -4431,13 +4461,13 @@
         <v>621548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4482,13 @@
         <v>4131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4467,13 +4497,13 @@
         <v>5853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -4482,13 +4512,13 @@
         <v>9984</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,7 +4574,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4556,13 +4586,13 @@
         <v>545685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>361</v>
@@ -4571,13 +4601,13 @@
         <v>387765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>900</v>
@@ -4586,13 +4616,13 @@
         <v>933450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4637,13 @@
         <v>5032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4622,13 +4652,13 @@
         <v>6393</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -4637,13 +4667,13 @@
         <v>11425</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4741,13 @@
         <v>1878007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>1027</v>
@@ -4726,13 +4756,13 @@
         <v>1071986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>2803</v>
@@ -4741,13 +4771,13 @@
         <v>2949993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4792,13 @@
         <v>24517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -4777,13 +4807,13 @@
         <v>31194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -4792,13 +4822,13 @@
         <v>55711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,7 +4884,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4875,7 +4905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5ABB3B-1B84-456B-9E0C-0CA2DE240598}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD940B8-6CB1-4638-938C-94F393F9B532}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4892,7 +4922,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4999,13 +5029,13 @@
         <v>46741</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5014,13 +5044,13 @@
         <v>26779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -5029,13 +5059,13 @@
         <v>73519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5080,13 @@
         <v>6565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5065,13 +5095,13 @@
         <v>6064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -5080,13 +5110,13 @@
         <v>12629</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5184,13 @@
         <v>288510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -5169,13 +5199,13 @@
         <v>141028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>508</v>
@@ -5184,13 +5214,13 @@
         <v>429538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5235,13 @@
         <v>30392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5220,13 +5250,13 @@
         <v>40971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -5235,13 +5265,13 @@
         <v>71364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5339,13 @@
         <v>487308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>288</v>
@@ -5324,13 +5354,13 @@
         <v>219161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>732</v>
@@ -5339,13 +5369,13 @@
         <v>706470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5390,13 @@
         <v>152788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -5375,13 +5405,13 @@
         <v>132082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -5390,13 +5420,13 @@
         <v>284870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5494,13 @@
         <v>335492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -5479,13 +5509,13 @@
         <v>296776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>552</v>
@@ -5494,13 +5524,13 @@
         <v>632269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5545,13 @@
         <v>74142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -5530,13 +5560,13 @@
         <v>91029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>174</v>
@@ -5545,13 +5575,13 @@
         <v>165171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5637,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5619,13 +5649,13 @@
         <v>460652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -5634,13 +5664,13 @@
         <v>314039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -5649,13 +5679,13 @@
         <v>774691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5700,13 @@
         <v>102515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -5685,13 +5715,13 @@
         <v>142190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -5700,13 +5730,13 @@
         <v>244705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5804,13 @@
         <v>1618703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>1206</v>
@@ -5789,13 +5819,13 @@
         <v>997784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>2794</v>
@@ -5804,13 +5834,13 @@
         <v>2616487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5855,13 @@
         <v>366403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -5840,13 +5870,13 @@
         <v>412336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>809</v>
@@ -5855,13 +5885,13 @@
         <v>778738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5917,7 +5947,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A29C6F91-68CD-40C7-AC4D-C78CAD28A006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0116B61-C5EF-40DF-B3AC-955FDD22D6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BC45876-3BF7-4F58-824C-9AD61D7D3351}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FDACE28-BCFC-40C4-949C-6A01B5FF0EA1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="422">
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 40,87%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="447">
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,58 +71,64 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,1180 +137,1249 @@
     <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 41,29%)</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 43,49%)</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 41,21%)</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 97,69%)</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9E3880-8496-4409-A57B-DF1CF2E90903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C1B90-C843-4290-AA25-B2695F777021}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,7 +1912,7 @@
         <v>61</v>
       </c>
       <c r="D4" s="7">
-        <v>66708</v>
+        <v>66709</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1861,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -1870,64 +1945,64 @@
         <v>94256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>2171</v>
+        <v>45447</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="I5" s="7">
-        <v>1736</v>
+        <v>85208</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="N5" s="7">
-        <v>3907</v>
+        <v>130655</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,54 +2011,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D6" s="7">
-        <v>68879</v>
+        <v>112156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I6" s="7">
-        <v>29283</v>
+        <v>112755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="N6" s="7">
-        <v>98163</v>
+        <v>224911</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1992,31 +2067,31 @@
         <v>347</v>
       </c>
       <c r="D7" s="7">
-        <v>350400</v>
+        <v>350401</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>134</v>
       </c>
       <c r="I7" s="7">
-        <v>134882</v>
+        <v>134883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>481</v>
@@ -2025,64 +2100,64 @@
         <v>485283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="D8" s="7">
-        <v>12238</v>
+        <v>223654</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>432</v>
       </c>
       <c r="I8" s="7">
-        <v>14462</v>
+        <v>438735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>659</v>
       </c>
       <c r="N8" s="7">
-        <v>26699</v>
+        <v>662389</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,54 +2166,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>359</v>
+        <v>574</v>
       </c>
       <c r="D9" s="7">
-        <v>362638</v>
+        <v>574055</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>149</v>
+        <v>566</v>
       </c>
       <c r="I9" s="7">
-        <v>149344</v>
+        <v>573618</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>508</v>
+        <v>1140</v>
       </c>
       <c r="N9" s="7">
-        <v>511982</v>
+        <v>1147672</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2147,16 +2222,16 @@
         <v>519</v>
       </c>
       <c r="D10" s="7">
-        <v>555692</v>
+        <v>555693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>236</v>
@@ -2165,79 +2240,79 @@
         <v>250453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>755</v>
       </c>
       <c r="N10" s="7">
-        <v>806145</v>
+        <v>806146</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>12</v>
+        <v>365</v>
       </c>
       <c r="D11" s="7">
-        <v>13476</v>
+        <v>393377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>665</v>
       </c>
       <c r="I11" s="7">
-        <v>21455</v>
+        <v>710338</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>1030</v>
       </c>
       <c r="N11" s="7">
-        <v>34931</v>
+        <v>1103714</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,54 +2321,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>531</v>
+        <v>884</v>
       </c>
       <c r="D12" s="7">
-        <v>569168</v>
+        <v>949070</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>256</v>
+        <v>901</v>
       </c>
       <c r="I12" s="7">
-        <v>271908</v>
+        <v>960791</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>787</v>
+        <v>1785</v>
       </c>
       <c r="N12" s="7">
-        <v>841076</v>
+        <v>1909860</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2302,16 +2377,16 @@
         <v>292</v>
       </c>
       <c r="D13" s="7">
-        <v>303977</v>
+        <v>303976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -2320,13 +2395,13 @@
         <v>121855</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>419</v>
@@ -2335,64 +2410,64 @@
         <v>425831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>15118</v>
+        <v>362590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>565</v>
       </c>
       <c r="I14" s="7">
-        <v>4275</v>
+        <v>557767</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>902</v>
       </c>
       <c r="N14" s="7">
-        <v>19394</v>
+        <v>920358</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,54 +2476,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>306</v>
+        <v>629</v>
       </c>
       <c r="D15" s="7">
-        <v>319095</v>
+        <v>666566</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
+        <v>692</v>
       </c>
       <c r="I15" s="7">
-        <v>126130</v>
+        <v>679622</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>437</v>
+        <v>1321</v>
       </c>
       <c r="N15" s="7">
-        <v>445225</v>
+        <v>1346189</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2460,13 +2535,13 @@
         <v>499317</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>278</v>
@@ -2475,79 +2550,79 @@
         <v>289118</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>804</v>
       </c>
       <c r="N16" s="7">
-        <v>788434</v>
+        <v>788435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>19</v>
+        <v>457</v>
       </c>
       <c r="D17" s="7">
-        <v>17867</v>
+        <v>431440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>714</v>
       </c>
       <c r="I17" s="7">
-        <v>10818</v>
+        <v>744375</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>30</v>
+        <v>1171</v>
       </c>
       <c r="N17" s="7">
-        <v>28686</v>
+        <v>1175815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2556,49 +2631,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>545</v>
+        <v>983</v>
       </c>
       <c r="D18" s="7">
-        <v>517184</v>
+        <v>930757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>289</v>
+        <v>992</v>
       </c>
       <c r="I18" s="7">
-        <v>299936</v>
+        <v>1033493</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>834</v>
+        <v>1975</v>
       </c>
       <c r="N18" s="7">
-        <v>817120</v>
+        <v>1964250</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2690,13 @@
         <v>1776095</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>805</v>
@@ -2630,13 +2705,13 @@
         <v>823855</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2550</v>
@@ -2645,64 +2720,64 @@
         <v>2599950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>59</v>
+        <v>1427</v>
       </c>
       <c r="D20" s="7">
-        <v>60869</v>
+        <v>1456509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>2474</v>
       </c>
       <c r="I20" s="7">
-        <v>52747</v>
+        <v>2536424</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>111</v>
+        <v>3901</v>
       </c>
       <c r="N20" s="7">
-        <v>113616</v>
+        <v>3992932</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,54 +2786,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1804</v>
+        <v>3172</v>
       </c>
       <c r="D21" s="7">
-        <v>1836964</v>
+        <v>3232604</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>857</v>
+        <v>3279</v>
       </c>
       <c r="I21" s="7">
-        <v>876602</v>
+        <v>3360279</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2661</v>
+        <v>6451</v>
       </c>
       <c r="N21" s="7">
-        <v>2713566</v>
+        <v>6592882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B476E970-5D1A-4253-8BB2-CA52458D9D9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DD3B73-C28C-47C4-B3EF-C2F4556EFEBF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,7 +2871,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,31 +2975,31 @@
         <v>69</v>
       </c>
       <c r="D4" s="7">
-        <v>62847</v>
+        <v>62846</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>26012</v>
+        <v>26011</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -2933,64 +3008,64 @@
         <v>88858</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
-        <v>1809</v>
+        <v>52058</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="I5" s="7">
-        <v>2032</v>
+        <v>84831</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="N5" s="7">
-        <v>3841</v>
+        <v>136888</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,54 +3074,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D6" s="7">
-        <v>64656</v>
+        <v>114904</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>28044</v>
+        <v>110842</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="N6" s="7">
-        <v>92699</v>
+        <v>225746</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3058,13 +3133,13 @@
         <v>319408</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -3073,13 +3148,13 @@
         <v>122351</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>416</v>
@@ -3088,64 +3163,64 @@
         <v>441759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="D8" s="7">
-        <v>9786</v>
+        <v>234879</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="I8" s="7">
-        <v>20157</v>
+        <v>457969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>28</v>
+        <v>653</v>
       </c>
       <c r="N8" s="7">
-        <v>29943</v>
+        <v>692848</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,54 +3229,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>310</v>
+        <v>523</v>
       </c>
       <c r="D9" s="7">
-        <v>329194</v>
+        <v>554287</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>546</v>
       </c>
       <c r="I9" s="7">
-        <v>142508</v>
+        <v>580320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>444</v>
+        <v>1069</v>
       </c>
       <c r="N9" s="7">
-        <v>471702</v>
+        <v>1134607</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3210,16 +3285,16 @@
         <v>495</v>
       </c>
       <c r="D10" s="7">
-        <v>538908</v>
+        <v>538909</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>227</v>
@@ -3228,13 +3303,13 @@
         <v>247323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>722</v>
@@ -3243,64 +3318,64 @@
         <v>786232</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>399</v>
       </c>
       <c r="D11" s="7">
-        <v>13438</v>
+        <v>435940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>691</v>
       </c>
       <c r="I11" s="7">
-        <v>25143</v>
+        <v>759802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>1090</v>
       </c>
       <c r="N11" s="7">
-        <v>38580</v>
+        <v>1195743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,54 +3384,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>508</v>
+        <v>894</v>
       </c>
       <c r="D12" s="7">
-        <v>552346</v>
+        <v>974849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>250</v>
+        <v>918</v>
       </c>
       <c r="I12" s="7">
-        <v>272466</v>
+        <v>1007125</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>758</v>
+        <v>1812</v>
       </c>
       <c r="N12" s="7">
-        <v>824812</v>
+        <v>1981975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3365,16 +3440,16 @@
         <v>369</v>
       </c>
       <c r="D13" s="7">
-        <v>402391</v>
+        <v>402392</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>157</v>
@@ -3383,79 +3458,79 @@
         <v>178894</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>526</v>
       </c>
       <c r="N13" s="7">
-        <v>581285</v>
+        <v>581286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>18809</v>
+        <v>315817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>530</v>
       </c>
       <c r="I14" s="7">
-        <v>10163</v>
+        <v>577594</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
-        <v>26</v>
+        <v>815</v>
       </c>
       <c r="N14" s="7">
-        <v>28972</v>
+        <v>893410</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,54 +3539,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>386</v>
+        <v>654</v>
       </c>
       <c r="D15" s="7">
-        <v>421200</v>
+        <v>718209</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>166</v>
+        <v>687</v>
       </c>
       <c r="I15" s="7">
-        <v>189057</v>
+        <v>756488</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>552</v>
+        <v>1341</v>
       </c>
       <c r="N15" s="7">
-        <v>610257</v>
+        <v>1474696</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3520,31 +3595,31 @@
         <v>497</v>
       </c>
       <c r="D16" s="7">
-        <v>514274</v>
+        <v>514273</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>300</v>
       </c>
       <c r="I16" s="7">
-        <v>320323</v>
+        <v>320324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>797</v>
@@ -3553,64 +3628,64 @@
         <v>834597</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="D17" s="7">
-        <v>10694</v>
+        <v>398053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
-        <v>31</v>
+        <v>684</v>
       </c>
       <c r="I17" s="7">
-        <v>31339</v>
+        <v>711042</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>1063</v>
       </c>
       <c r="N17" s="7">
-        <v>42033</v>
+        <v>1109095</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,49 +3694,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>508</v>
+        <v>876</v>
       </c>
       <c r="D18" s="7">
-        <v>524968</v>
+        <v>912326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>331</v>
+        <v>984</v>
       </c>
       <c r="I18" s="7">
-        <v>351662</v>
+        <v>1031366</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>839</v>
+        <v>1860</v>
       </c>
       <c r="N18" s="7">
-        <v>876630</v>
+        <v>1943692</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3753,13 @@
         <v>1837828</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>822</v>
@@ -3693,13 +3768,13 @@
         <v>894904</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>2552</v>
@@ -3708,64 +3783,64 @@
         <v>2732732</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>52</v>
+        <v>1338</v>
       </c>
       <c r="D20" s="7">
-        <v>54536</v>
+        <v>1436748</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>2411</v>
       </c>
       <c r="I20" s="7">
-        <v>88834</v>
+        <v>2591237</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
-        <v>135</v>
+        <v>3749</v>
       </c>
       <c r="N20" s="7">
-        <v>143370</v>
+        <v>4027984</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,54 +3849,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1782</v>
+        <v>3068</v>
       </c>
       <c r="D21" s="7">
-        <v>1892364</v>
+        <v>3274576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>905</v>
+        <v>3233</v>
       </c>
       <c r="I21" s="7">
-        <v>983738</v>
+        <v>3486141</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2687</v>
+        <v>6301</v>
       </c>
       <c r="N21" s="7">
-        <v>2876102</v>
+        <v>6760716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3842,7 +3917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B669DEDD-F4F3-4283-AABE-38FC22BF42E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE7F4D-CFA3-4D61-B04A-1D00681C1F4D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3859,7 +3934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,13 +4041,13 @@
         <v>83120</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3981,13 +4056,13 @@
         <v>32152</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>115</v>
@@ -3996,64 +4071,64 @@
         <v>115272</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>31330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>2398</v>
+        <v>80396</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>2398</v>
+        <v>111726</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,54 +4137,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D6" s="7">
-        <v>83120</v>
+        <v>114450</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="I6" s="7">
-        <v>34550</v>
+        <v>112548</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>117670</v>
+        <v>226998</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4118,16 +4193,16 @@
         <v>293</v>
       </c>
       <c r="D7" s="7">
-        <v>307496</v>
+        <v>307495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>146</v>
@@ -4136,13 +4211,13 @@
         <v>142479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>439</v>
@@ -4151,64 +4226,64 @@
         <v>449974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D8" s="7">
-        <v>7336</v>
+        <v>221076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="I8" s="7">
-        <v>3777</v>
+        <v>413092</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>618</v>
       </c>
       <c r="N8" s="7">
-        <v>11113</v>
+        <v>634168</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,54 +4292,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>510</v>
       </c>
       <c r="D9" s="7">
-        <v>314832</v>
+        <v>528571</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>547</v>
       </c>
       <c r="I9" s="7">
-        <v>146256</v>
+        <v>555571</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>450</v>
+        <v>1057</v>
       </c>
       <c r="N9" s="7">
-        <v>461087</v>
+        <v>1084142</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4273,16 +4348,16 @@
         <v>496</v>
       </c>
       <c r="D10" s="7">
-        <v>536327</v>
+        <v>536326</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>280</v>
@@ -4291,13 +4366,13 @@
         <v>293422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>776</v>
@@ -4306,64 +4381,64 @@
         <v>829748</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>427</v>
       </c>
       <c r="D11" s="7">
-        <v>8017</v>
+        <v>454925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>678</v>
       </c>
       <c r="I11" s="7">
-        <v>12774</v>
+        <v>729378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>1105</v>
       </c>
       <c r="N11" s="7">
-        <v>20792</v>
+        <v>1184303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,54 +4447,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>504</v>
+        <v>923</v>
       </c>
       <c r="D12" s="7">
-        <v>544344</v>
+        <v>991251</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>292</v>
+        <v>958</v>
       </c>
       <c r="I12" s="7">
-        <v>306196</v>
+        <v>1022800</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>796</v>
+        <v>1881</v>
       </c>
       <c r="N12" s="7">
-        <v>850540</v>
+        <v>2014051</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4431,28 +4506,28 @@
         <v>405380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
       </c>
       <c r="I13" s="7">
-        <v>216167</v>
+        <v>216168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>573</v>
@@ -4461,64 +4536,64 @@
         <v>621548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="D14" s="7">
-        <v>4131</v>
+        <v>336996</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>519</v>
       </c>
       <c r="I14" s="7">
-        <v>5853</v>
+        <v>555288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>832</v>
       </c>
       <c r="N14" s="7">
-        <v>9984</v>
+        <v>892284</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,54 +4602,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>372</v>
+        <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>409511</v>
+        <v>742376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>211</v>
+        <v>724</v>
       </c>
       <c r="I15" s="7">
-        <v>222020</v>
+        <v>771456</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>583</v>
+        <v>1405</v>
       </c>
       <c r="N15" s="7">
-        <v>631532</v>
+        <v>1513832</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4583,31 +4658,31 @@
         <v>539</v>
       </c>
       <c r="D16" s="7">
-        <v>545685</v>
+        <v>545684</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>361</v>
       </c>
       <c r="I16" s="7">
-        <v>387765</v>
+        <v>387766</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>900</v>
@@ -4616,64 +4691,64 @@
         <v>933450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>366</v>
       </c>
       <c r="D17" s="7">
-        <v>5032</v>
+        <v>365213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>583</v>
       </c>
       <c r="I17" s="7">
-        <v>6393</v>
+        <v>637923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>949</v>
       </c>
       <c r="N17" s="7">
-        <v>11425</v>
+        <v>1003136</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,49 +4757,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>544</v>
+        <v>905</v>
       </c>
       <c r="D18" s="7">
-        <v>550717</v>
+        <v>910897</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>367</v>
+        <v>944</v>
       </c>
       <c r="I18" s="7">
-        <v>394158</v>
+        <v>1025689</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>911</v>
+        <v>1849</v>
       </c>
       <c r="N18" s="7">
-        <v>944875</v>
+        <v>1936586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,16 +4813,16 @@
         <v>1776</v>
       </c>
       <c r="D19" s="7">
-        <v>1878007</v>
+        <v>1878006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>327</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="H19" s="7">
         <v>1027</v>
@@ -4756,13 +4831,13 @@
         <v>1071986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="M19" s="7">
         <v>2803</v>
@@ -4771,64 +4846,64 @@
         <v>2949993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>1354</v>
       </c>
       <c r="D20" s="7">
-        <v>24517</v>
+        <v>1409540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
-        <v>30</v>
+        <v>2260</v>
       </c>
       <c r="I20" s="7">
-        <v>31194</v>
+        <v>2416078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
-        <v>54</v>
+        <v>3614</v>
       </c>
       <c r="N20" s="7">
-        <v>55711</v>
+        <v>3825617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,54 +4912,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1800</v>
+        <v>3130</v>
       </c>
       <c r="D21" s="7">
-        <v>1902524</v>
+        <v>3287546</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1057</v>
+        <v>3287</v>
       </c>
       <c r="I21" s="7">
-        <v>1103180</v>
+        <v>3488064</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2857</v>
+        <v>6417</v>
       </c>
       <c r="N21" s="7">
-        <v>3005704</v>
+        <v>6775610</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +4980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD940B8-6CB1-4638-938C-94F393F9B532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597633F8-5009-47B9-867D-C268651D817B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4922,7 +4997,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,16 +5101,16 @@
         <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>46741</v>
+        <v>46740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -5044,13 +5119,13 @@
         <v>26779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -5059,64 +5134,64 @@
         <v>73519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7">
-        <v>6565</v>
+        <v>54165</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="I5" s="7">
-        <v>6064</v>
+        <v>103469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="N5" s="7">
-        <v>12629</v>
+        <v>157634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,54 +5200,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7">
-        <v>53306</v>
+        <v>100905</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="I6" s="7">
-        <v>32843</v>
+        <v>130248</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>114</v>
+        <v>359</v>
       </c>
       <c r="N6" s="7">
-        <v>86148</v>
+        <v>231153</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5184,13 +5259,13 @@
         <v>288510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -5199,13 +5274,13 @@
         <v>141028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="M7" s="7">
         <v>508</v>
@@ -5214,64 +5289,64 @@
         <v>429538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="D8" s="7">
-        <v>30392</v>
+        <v>260081</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>788</v>
       </c>
       <c r="I8" s="7">
-        <v>40971</v>
+        <v>451305</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>1097</v>
       </c>
       <c r="N8" s="7">
-        <v>71364</v>
+        <v>711386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,54 +5355,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>610</v>
       </c>
       <c r="D9" s="7">
-        <v>318902</v>
+        <v>548591</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>272</v>
+        <v>995</v>
       </c>
       <c r="I9" s="7">
-        <v>181999</v>
+        <v>592333</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>602</v>
+        <v>1605</v>
       </c>
       <c r="N9" s="7">
-        <v>500902</v>
+        <v>1140924</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5339,94 +5414,94 @@
         <v>487308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="H10" s="7">
         <v>288</v>
       </c>
       <c r="I10" s="7">
-        <v>219161</v>
+        <v>219162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="M10" s="7">
         <v>732</v>
       </c>
       <c r="N10" s="7">
-        <v>706470</v>
+        <v>706469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>519</v>
       </c>
       <c r="D11" s="7">
-        <v>152788</v>
+        <v>550800</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="H11" s="7">
-        <v>164</v>
+        <v>1225</v>
       </c>
       <c r="I11" s="7">
-        <v>132082</v>
+        <v>838461</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="M11" s="7">
-        <v>257</v>
+        <v>1744</v>
       </c>
       <c r="N11" s="7">
-        <v>284870</v>
+        <v>1389261</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,54 +5510,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>537</v>
+        <v>963</v>
       </c>
       <c r="D12" s="7">
-        <v>640096</v>
+        <v>1038108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>1513</v>
       </c>
       <c r="I12" s="7">
-        <v>351243</v>
+        <v>1057623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>989</v>
+        <v>2476</v>
       </c>
       <c r="N12" s="7">
-        <v>991340</v>
+        <v>2095730</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5491,16 +5566,16 @@
         <v>304</v>
       </c>
       <c r="D13" s="7">
-        <v>335492</v>
+        <v>335493</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -5509,13 +5584,13 @@
         <v>296776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>552</v>
@@ -5524,64 +5599,64 @@
         <v>632269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>369</v>
       </c>
       <c r="D14" s="7">
-        <v>74142</v>
+        <v>390787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>110</v>
+        <v>796</v>
       </c>
       <c r="I14" s="7">
-        <v>91029</v>
+        <v>574836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>139</v>
       </c>
       <c r="M14" s="7">
-        <v>174</v>
+        <v>1165</v>
       </c>
       <c r="N14" s="7">
-        <v>165171</v>
+        <v>965623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,54 +5665,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>673</v>
       </c>
       <c r="D15" s="7">
-        <v>409634</v>
+        <v>726280</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>1044</v>
       </c>
       <c r="I15" s="7">
-        <v>387805</v>
+        <v>871612</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>1717</v>
       </c>
       <c r="N15" s="7">
-        <v>797440</v>
+        <v>1597892</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5649,13 +5724,13 @@
         <v>460652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -5664,13 +5739,13 @@
         <v>314039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -5679,64 +5754,64 @@
         <v>774691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>99</v>
+        <v>521</v>
       </c>
       <c r="D17" s="7">
-        <v>102515</v>
+        <v>503626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="H17" s="7">
-        <v>168</v>
+        <v>1136</v>
       </c>
       <c r="I17" s="7">
-        <v>142190</v>
+        <v>830884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="M17" s="7">
-        <v>267</v>
+        <v>1657</v>
       </c>
       <c r="N17" s="7">
-        <v>244705</v>
+        <v>1334510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +5820,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>583</v>
+        <v>1005</v>
       </c>
       <c r="D18" s="7">
-        <v>563167</v>
+        <v>964278</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>589</v>
+        <v>1557</v>
       </c>
       <c r="I18" s="7">
-        <v>456229</v>
+        <v>1144923</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1172</v>
+        <v>2562</v>
       </c>
       <c r="N18" s="7">
-        <v>1019396</v>
+        <v>2109201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5879,13 @@
         <v>1618703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>319</v>
+        <v>431</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="H19" s="7">
         <v>1206</v>
@@ -5819,13 +5894,13 @@
         <v>997784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="M19" s="7">
         <v>2794</v>
@@ -5834,64 +5909,64 @@
         <v>2616487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>292</v>
+        <v>1780</v>
       </c>
       <c r="D20" s="7">
-        <v>366403</v>
+        <v>1759459</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
-        <v>517</v>
+        <v>4145</v>
       </c>
       <c r="I20" s="7">
-        <v>412336</v>
+        <v>2798954</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="M20" s="7">
-        <v>809</v>
+        <v>5925</v>
       </c>
       <c r="N20" s="7">
-        <v>778738</v>
+        <v>4558414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,54 +5975,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1880</v>
+        <v>3368</v>
       </c>
       <c r="D21" s="7">
-        <v>1985106</v>
+        <v>3378162</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1723</v>
+        <v>5351</v>
       </c>
       <c r="I21" s="7">
-        <v>1410120</v>
+        <v>3796738</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>3603</v>
+        <v>8719</v>
       </c>
       <c r="N21" s="7">
-        <v>3395225</v>
+        <v>7174901</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0116B61-C5EF-40DF-B3AC-955FDD22D6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8256386-0B6B-4BF7-905C-37F5532CE82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1FDACE28-BCFC-40C4-949C-6A01B5FF0EA1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C80CFEFE-9D45-475D-91D5-FA8C15D14FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2007 (Tasa respuesta: 99,08%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>60,05%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>45,6%</t>
@@ -422,114 +365,60 @@
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2012 (Tasa respuesta: 96,83%)</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
   </si>
   <si>
     <t>63,93%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
     <t>55,28%</t>
   </si>
   <si>
@@ -596,9 +485,6 @@
     <t>23,65%</t>
   </si>
   <si>
-    <t>20,62%</t>
-  </si>
-  <si>
     <t>27,26%</t>
   </si>
   <si>
@@ -626,9 +512,6 @@
     <t>72,74%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
     <t>60,58%</t>
   </si>
   <si>
@@ -749,637 +632,517 @@
     <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2016 (Tasa respuesta: 97,69%)</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>Población según si han bebido a lo largo de estas dos semanas algún tipo de bebida alcohólica en 2023 (Tasa respuesta: 99,73%)</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>44,03%</t>
   </si>
   <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>55,97%</t>
   </si>
   <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13C1B90-C843-4290-AA25-B2695F777021}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE6C18B-E96F-408D-AA72-1784B32224BD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1909,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>408</v>
       </c>
       <c r="D4" s="7">
-        <v>66709</v>
+        <v>417109</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1924,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="I4" s="7">
-        <v>27547</v>
+        <v>162430</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1939,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>91</v>
+        <v>572</v>
       </c>
       <c r="N4" s="7">
-        <v>94256</v>
+        <v>579539</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1960,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="D5" s="7">
-        <v>45447</v>
+        <v>269101</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1975,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>98</v>
+        <v>530</v>
       </c>
       <c r="I5" s="7">
-        <v>85208</v>
+        <v>523943</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1990,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>139</v>
+        <v>798</v>
       </c>
       <c r="N5" s="7">
-        <v>130655</v>
+        <v>793044</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2011,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>102</v>
+        <v>676</v>
       </c>
       <c r="D6" s="7">
-        <v>112156</v>
+        <v>686210</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2026,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>694</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>686373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2041,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>230</v>
+        <v>1370</v>
       </c>
       <c r="N6" s="7">
-        <v>224911</v>
+        <v>1372583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2064,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>347</v>
+        <v>519</v>
       </c>
       <c r="D7" s="7">
-        <v>350401</v>
+        <v>555693</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2079,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="I7" s="7">
-        <v>134883</v>
+        <v>250453</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2094,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>481</v>
+        <v>755</v>
       </c>
       <c r="N7" s="7">
-        <v>485283</v>
+        <v>806146</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2115,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>227</v>
+        <v>365</v>
       </c>
       <c r="D8" s="7">
-        <v>223654</v>
+        <v>393377</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2130,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>432</v>
+        <v>665</v>
       </c>
       <c r="I8" s="7">
-        <v>438735</v>
+        <v>710338</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2145,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>659</v>
+        <v>1030</v>
       </c>
       <c r="N8" s="7">
-        <v>662389</v>
+        <v>1103714</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2166,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>574</v>
+        <v>884</v>
       </c>
       <c r="D9" s="7">
-        <v>574055</v>
+        <v>949070</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2181,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>566</v>
+        <v>901</v>
       </c>
       <c r="I9" s="7">
-        <v>573618</v>
+        <v>960791</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2196,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1140</v>
+        <v>1785</v>
       </c>
       <c r="N9" s="7">
-        <v>1147672</v>
+        <v>1909860</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2219,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>519</v>
+        <v>292</v>
       </c>
       <c r="D10" s="7">
-        <v>555693</v>
+        <v>303976</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2234,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>236</v>
+        <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>250453</v>
+        <v>121855</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2249,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>755</v>
+        <v>419</v>
       </c>
       <c r="N10" s="7">
-        <v>806146</v>
+        <v>425831</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2270,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>393377</v>
+        <v>362590</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2285,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>565</v>
       </c>
       <c r="I11" s="7">
-        <v>710338</v>
+        <v>557767</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2300,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1030</v>
+        <v>902</v>
       </c>
       <c r="N11" s="7">
-        <v>1103714</v>
+        <v>920358</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2321,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>884</v>
+        <v>629</v>
       </c>
       <c r="D12" s="7">
-        <v>949070</v>
+        <v>666566</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2336,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>901</v>
+        <v>692</v>
       </c>
       <c r="I12" s="7">
-        <v>960791</v>
+        <v>679622</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2351,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1785</v>
+        <v>1321</v>
       </c>
       <c r="N12" s="7">
-        <v>1909860</v>
+        <v>1346189</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2374,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>292</v>
+        <v>526</v>
       </c>
       <c r="D13" s="7">
-        <v>303976</v>
+        <v>499317</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2389,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="I13" s="7">
-        <v>121855</v>
+        <v>289118</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2404,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>419</v>
+        <v>804</v>
       </c>
       <c r="N13" s="7">
-        <v>425831</v>
+        <v>788435</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2425,10 +2188,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>337</v>
+        <v>457</v>
       </c>
       <c r="D14" s="7">
-        <v>362590</v>
+        <v>431440</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2440,10 +2203,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>565</v>
+        <v>714</v>
       </c>
       <c r="I14" s="7">
-        <v>557767</v>
+        <v>744375</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2455,10 +2218,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>902</v>
+        <v>1171</v>
       </c>
       <c r="N14" s="7">
-        <v>920358</v>
+        <v>1175815</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2476,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>629</v>
+        <v>983</v>
       </c>
       <c r="D15" s="7">
-        <v>666566</v>
+        <v>930757</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2491,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>692</v>
+        <v>992</v>
       </c>
       <c r="I15" s="7">
-        <v>679622</v>
+        <v>1033493</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2506,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1321</v>
+        <v>1975</v>
       </c>
       <c r="N15" s="7">
-        <v>1346189</v>
+        <v>1964250</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2523,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>526</v>
+        <v>1745</v>
       </c>
       <c r="D16" s="7">
-        <v>499317</v>
+        <v>1776095</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>805</v>
+      </c>
+      <c r="I16" s="7">
+        <v>823855</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>278</v>
-      </c>
-      <c r="I16" s="7">
-        <v>289118</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2550</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2599950</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>804</v>
-      </c>
-      <c r="N16" s="7">
-        <v>788435</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>457</v>
+        <v>1427</v>
       </c>
       <c r="D17" s="7">
-        <v>431440</v>
+        <v>1456508</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2474</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2536424</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>714</v>
-      </c>
-      <c r="I17" s="7">
-        <v>744375</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3901</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3992932</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1171</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1175815</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>983</v>
+        <v>3172</v>
       </c>
       <c r="D18" s="7">
-        <v>930757</v>
+        <v>3232603</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2646,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>992</v>
+        <v>3279</v>
       </c>
       <c r="I18" s="7">
-        <v>1033493</v>
+        <v>3360279</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2661,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1975</v>
+        <v>6451</v>
       </c>
       <c r="N18" s="7">
-        <v>1964250</v>
+        <v>6592882</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2677,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1745</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1776095</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>805</v>
-      </c>
-      <c r="I19" s="7">
-        <v>823855</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2550</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2599950</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1427</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1456509</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2474</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2536424</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3901</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3992932</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3172</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3232604</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3279</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3360279</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6451</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6592882</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2854,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DD3B73-C28C-47C4-B3EF-C2F4556EFEBF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F4052-788E-402C-A00A-8073B36E99B1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2871,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2972,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="D4" s="7">
-        <v>62846</v>
+        <v>382254</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="I4" s="7">
-        <v>26011</v>
+        <v>148363</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>91</v>
+        <v>507</v>
       </c>
       <c r="N4" s="7">
-        <v>88858</v>
+        <v>530617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="D5" s="7">
-        <v>52058</v>
+        <v>286937</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>76</v>
+        <v>506</v>
       </c>
       <c r="I5" s="7">
-        <v>84831</v>
+        <v>542799</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>128</v>
+        <v>781</v>
       </c>
       <c r="N5" s="7">
-        <v>136888</v>
+        <v>829736</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>644</v>
       </c>
       <c r="D6" s="7">
-        <v>114904</v>
+        <v>669191</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3089,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>644</v>
       </c>
       <c r="I6" s="7">
-        <v>110842</v>
+        <v>691162</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3104,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>219</v>
+        <v>1288</v>
       </c>
       <c r="N6" s="7">
-        <v>225746</v>
+        <v>1360353</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3127,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="D7" s="7">
-        <v>319408</v>
+        <v>538909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="I7" s="7">
-        <v>122351</v>
+        <v>247323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>416</v>
+        <v>722</v>
       </c>
       <c r="N7" s="7">
-        <v>441759</v>
+        <v>786232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>223</v>
+        <v>399</v>
       </c>
       <c r="D8" s="7">
-        <v>234879</v>
+        <v>435940</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>430</v>
+        <v>691</v>
       </c>
       <c r="I8" s="7">
-        <v>457969</v>
+        <v>759802</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>653</v>
+        <v>1090</v>
       </c>
       <c r="N8" s="7">
-        <v>692848</v>
+        <v>1195743</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>523</v>
+        <v>894</v>
       </c>
       <c r="D9" s="7">
-        <v>554287</v>
+        <v>974849</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3244,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>546</v>
+        <v>918</v>
       </c>
       <c r="I9" s="7">
-        <v>580320</v>
+        <v>1007125</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3259,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1069</v>
+        <v>1812</v>
       </c>
       <c r="N9" s="7">
-        <v>1134607</v>
+        <v>1981975</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3282,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>495</v>
+        <v>369</v>
       </c>
       <c r="D10" s="7">
-        <v>538909</v>
+        <v>402392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="I10" s="7">
-        <v>247323</v>
+        <v>178894</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>722</v>
+        <v>526</v>
       </c>
       <c r="N10" s="7">
-        <v>786232</v>
+        <v>581286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="D11" s="7">
-        <v>435940</v>
+        <v>315817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>691</v>
+        <v>530</v>
       </c>
       <c r="I11" s="7">
-        <v>759802</v>
+        <v>577594</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>1090</v>
+        <v>815</v>
       </c>
       <c r="N11" s="7">
-        <v>1195743</v>
+        <v>893411</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>894</v>
+        <v>654</v>
       </c>
       <c r="D12" s="7">
-        <v>974849</v>
+        <v>718209</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3399,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>918</v>
+        <v>687</v>
       </c>
       <c r="I12" s="7">
-        <v>1007125</v>
+        <v>756488</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3414,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1812</v>
+        <v>1341</v>
       </c>
       <c r="N12" s="7">
-        <v>1981975</v>
+        <v>1474697</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3437,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="D13" s="7">
-        <v>402392</v>
+        <v>514273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="I13" s="7">
-        <v>178894</v>
+        <v>320324</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>526</v>
+        <v>797</v>
       </c>
       <c r="N13" s="7">
-        <v>581286</v>
+        <v>834597</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>285</v>
+        <v>379</v>
       </c>
       <c r="D14" s="7">
-        <v>315817</v>
+        <v>398053</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>530</v>
+        <v>684</v>
       </c>
       <c r="I14" s="7">
-        <v>577594</v>
+        <v>711042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>815</v>
+        <v>1063</v>
       </c>
       <c r="N14" s="7">
-        <v>893410</v>
+        <v>1109095</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>654</v>
+        <v>876</v>
       </c>
       <c r="D15" s="7">
-        <v>718209</v>
+        <v>912326</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3554,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>687</v>
+        <v>984</v>
       </c>
       <c r="I15" s="7">
-        <v>756488</v>
+        <v>1031366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3569,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1341</v>
+        <v>1860</v>
       </c>
       <c r="N15" s="7">
-        <v>1474696</v>
+        <v>1943692</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3586,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>497</v>
+        <v>1730</v>
       </c>
       <c r="D16" s="7">
-        <v>514273</v>
+        <v>1837828</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>300</v>
+        <v>822</v>
       </c>
       <c r="I16" s="7">
-        <v>320324</v>
+        <v>894904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>797</v>
+        <v>2552</v>
       </c>
       <c r="N16" s="7">
-        <v>834597</v>
+        <v>2732732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>379</v>
+        <v>1338</v>
       </c>
       <c r="D17" s="7">
-        <v>398053</v>
+        <v>1436748</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>684</v>
+        <v>2411</v>
       </c>
       <c r="I17" s="7">
-        <v>711042</v>
+        <v>2591237</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>1063</v>
+        <v>3749</v>
       </c>
       <c r="N17" s="7">
-        <v>1109095</v>
+        <v>4027984</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>876</v>
+        <v>3068</v>
       </c>
       <c r="D18" s="7">
-        <v>912326</v>
+        <v>3274576</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3709,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>984</v>
+        <v>3233</v>
       </c>
       <c r="I18" s="7">
-        <v>1031366</v>
+        <v>3486141</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3724,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1860</v>
+        <v>6301</v>
       </c>
       <c r="N18" s="7">
-        <v>1943692</v>
+        <v>6760716</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3740,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1730</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1837828</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H19" s="7">
-        <v>822</v>
-      </c>
-      <c r="I19" s="7">
-        <v>894904</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2552</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2732732</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1338</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1436748</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2411</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2591237</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3749</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4027984</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3068</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3274576</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3233</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3486141</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6301</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6760716</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3917,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34BE7F4D-CFA3-4D61-B04A-1D00681C1F4D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3985EC-749E-4F1C-951C-4A2C69CD5110}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3934,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4035,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="D4" s="7">
-        <v>83120</v>
+        <v>390615</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="I4" s="7">
-        <v>32152</v>
+        <v>174631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>115</v>
+        <v>554</v>
       </c>
       <c r="N4" s="7">
-        <v>115272</v>
+        <v>565246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>248</v>
       </c>
       <c r="D5" s="7">
-        <v>31330</v>
+        <v>252406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>79</v>
+        <v>480</v>
       </c>
       <c r="I5" s="7">
-        <v>80396</v>
+        <v>493489</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>46</v>
       </c>
       <c r="M5" s="7">
-        <v>110</v>
+        <v>728</v>
       </c>
       <c r="N5" s="7">
-        <v>111726</v>
+        <v>745895</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>111</v>
+        <v>621</v>
       </c>
       <c r="D6" s="7">
-        <v>114450</v>
+        <v>643021</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4152,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>114</v>
+        <v>661</v>
       </c>
       <c r="I6" s="7">
-        <v>112548</v>
+        <v>668120</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4167,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>225</v>
+        <v>1282</v>
       </c>
       <c r="N6" s="7">
-        <v>226998</v>
+        <v>1311141</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4190,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>293</v>
+        <v>496</v>
       </c>
       <c r="D7" s="7">
-        <v>307495</v>
+        <v>536326</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="I7" s="7">
-        <v>142479</v>
+        <v>293422</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>439</v>
+        <v>776</v>
       </c>
       <c r="N7" s="7">
-        <v>449974</v>
+        <v>829748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>217</v>
+        <v>427</v>
       </c>
       <c r="D8" s="7">
-        <v>221076</v>
+        <v>454925</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>401</v>
+        <v>678</v>
       </c>
       <c r="I8" s="7">
-        <v>413092</v>
+        <v>729378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>618</v>
+        <v>1105</v>
       </c>
       <c r="N8" s="7">
-        <v>634168</v>
+        <v>1184303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>510</v>
+        <v>923</v>
       </c>
       <c r="D9" s="7">
-        <v>528571</v>
+        <v>991251</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4307,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>958</v>
       </c>
       <c r="I9" s="7">
-        <v>555571</v>
+        <v>1022800</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4322,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1057</v>
+        <v>1881</v>
       </c>
       <c r="N9" s="7">
-        <v>1084142</v>
+        <v>2014051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4345,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="D10" s="7">
-        <v>536326</v>
+        <v>405380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="I10" s="7">
-        <v>293422</v>
+        <v>216168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>776</v>
+        <v>573</v>
       </c>
       <c r="N10" s="7">
-        <v>829748</v>
+        <v>621548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>427</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>454925</v>
+        <v>336997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>678</v>
+        <v>519</v>
       </c>
       <c r="I11" s="7">
-        <v>729378</v>
+        <v>555288</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>1105</v>
+        <v>832</v>
       </c>
       <c r="N11" s="7">
-        <v>1184303</v>
+        <v>892284</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>923</v>
+        <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>991251</v>
+        <v>742377</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4462,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>958</v>
+        <v>724</v>
       </c>
       <c r="I12" s="7">
-        <v>1022800</v>
+        <v>771456</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4477,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1881</v>
+        <v>1405</v>
       </c>
       <c r="N12" s="7">
-        <v>2014051</v>
+        <v>1513832</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4500,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>368</v>
+        <v>539</v>
       </c>
       <c r="D13" s="7">
-        <v>405380</v>
+        <v>545684</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>361</v>
       </c>
       <c r="I13" s="7">
-        <v>216168</v>
+        <v>387766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>573</v>
+        <v>900</v>
       </c>
       <c r="N13" s="7">
-        <v>621548</v>
+        <v>933450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="D14" s="7">
-        <v>336996</v>
+        <v>365213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="I14" s="7">
-        <v>555288</v>
+        <v>637923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>832</v>
+        <v>949</v>
       </c>
       <c r="N14" s="7">
-        <v>892284</v>
+        <v>1003136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>307</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>681</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7">
-        <v>742376</v>
+        <v>910897</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4617,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>724</v>
+        <v>944</v>
       </c>
       <c r="I15" s="7">
-        <v>771456</v>
+        <v>1025689</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4632,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1405</v>
+        <v>1849</v>
       </c>
       <c r="N15" s="7">
-        <v>1513832</v>
+        <v>1936586</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4649,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>539</v>
+        <v>1776</v>
       </c>
       <c r="D16" s="7">
-        <v>545684</v>
+        <v>1878006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7">
-        <v>361</v>
+        <v>1027</v>
       </c>
       <c r="I16" s="7">
-        <v>387766</v>
+        <v>1071986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
-        <v>900</v>
+        <v>2803</v>
       </c>
       <c r="N16" s="7">
-        <v>933450</v>
+        <v>2949993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>366</v>
+        <v>1354</v>
       </c>
       <c r="D17" s="7">
-        <v>365213</v>
+        <v>1409540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
-        <v>583</v>
+        <v>2260</v>
       </c>
       <c r="I17" s="7">
-        <v>637923</v>
+        <v>2416078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
-        <v>949</v>
+        <v>3614</v>
       </c>
       <c r="N17" s="7">
-        <v>1003136</v>
+        <v>3825617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>905</v>
+        <v>3130</v>
       </c>
       <c r="D18" s="7">
-        <v>910897</v>
+        <v>3287546</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4772,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>944</v>
+        <v>3287</v>
       </c>
       <c r="I18" s="7">
-        <v>1025689</v>
+        <v>3488064</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4787,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1849</v>
+        <v>6417</v>
       </c>
       <c r="N18" s="7">
-        <v>1936586</v>
+        <v>6775610</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4803,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1776</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1878006</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1027</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1071986</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2803</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2949993</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1354</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1409540</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2260</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2416078</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3614</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3825617</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3130</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3287546</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3488064</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6417</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6775610</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4980,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597633F8-5009-47B9-867D-C268651D817B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D6EB1F-B94A-4009-B713-4CC7B81E9E1D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4997,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5098,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="D4" s="7">
-        <v>46740</v>
+        <v>333157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="I4" s="7">
-        <v>26779</v>
+        <v>159637</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>348</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="N4" s="7">
-        <v>73519</v>
+        <v>492794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="D5" s="7">
-        <v>54165</v>
+        <v>300077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="H5" s="7">
-        <v>200</v>
+        <v>988</v>
       </c>
       <c r="I5" s="7">
-        <v>103469</v>
+        <v>515059</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>357</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>262</v>
+        <v>1359</v>
       </c>
       <c r="N5" s="7">
-        <v>157634</v>
+        <v>815136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>361</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>362</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>117</v>
+        <v>727</v>
       </c>
       <c r="D6" s="7">
-        <v>100905</v>
+        <v>633234</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5215,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130248</v>
+        <v>674696</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5230,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>231153</v>
+        <v>1307930</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5253,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>444</v>
+      </c>
+      <c r="D7" s="7">
+        <v>476919</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="7">
-        <v>288510</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>364</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7">
-        <v>141028</v>
+        <v>201444</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>508</v>
+        <v>732</v>
       </c>
       <c r="N7" s="7">
-        <v>429538</v>
+        <v>678363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>519</v>
+      </c>
+      <c r="D8" s="7">
+        <v>714831</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="7">
-        <v>260081</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>372</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>788</v>
+        <v>1225</v>
       </c>
       <c r="I8" s="7">
-        <v>451305</v>
+        <v>755048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>1097</v>
+        <v>1744</v>
       </c>
       <c r="N8" s="7">
-        <v>711386</v>
+        <v>1469879</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>963</v>
       </c>
       <c r="D9" s="7">
-        <v>548591</v>
+        <v>1191750</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5370,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1513</v>
       </c>
       <c r="I9" s="7">
-        <v>592333</v>
+        <v>956492</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5385,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2476</v>
       </c>
       <c r="N9" s="7">
-        <v>1140924</v>
+        <v>2148242</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5408,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="D10" s="7">
-        <v>487308</v>
+        <v>326527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="I10" s="7">
-        <v>219162</v>
+        <v>376097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
-        <v>732</v>
+        <v>552</v>
       </c>
       <c r="N10" s="7">
-        <v>706469</v>
+        <v>702624</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>519</v>
+        <v>369</v>
       </c>
       <c r="D11" s="7">
-        <v>550800</v>
+        <v>375792</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="H11" s="7">
-        <v>1225</v>
+        <v>796</v>
       </c>
       <c r="I11" s="7">
-        <v>838461</v>
+        <v>554989</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>393</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>395</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>1744</v>
+        <v>1165</v>
       </c>
       <c r="N11" s="7">
-        <v>1389261</v>
+        <v>930781</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>963</v>
+        <v>673</v>
       </c>
       <c r="D12" s="7">
-        <v>1038108</v>
+        <v>702319</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5525,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1513</v>
+        <v>1044</v>
       </c>
       <c r="I12" s="7">
-        <v>1057623</v>
+        <v>931086</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5540,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2476</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2095730</v>
+        <v>1633405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5563,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="D13" s="7">
-        <v>335493</v>
+        <v>443700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>400</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="I13" s="7">
-        <v>296776</v>
+        <v>291013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>401</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>552</v>
+        <v>905</v>
       </c>
       <c r="N13" s="7">
-        <v>632269</v>
+        <v>734712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>369</v>
+        <v>521</v>
       </c>
       <c r="D14" s="7">
-        <v>390787</v>
+        <v>482045</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>796</v>
+        <v>1136</v>
       </c>
       <c r="I14" s="7">
-        <v>574836</v>
+        <v>799059</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>1165</v>
+        <v>1657</v>
       </c>
       <c r="N14" s="7">
-        <v>965623</v>
+        <v>1281105</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>673</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>726280</v>
+        <v>925745</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5680,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1044</v>
+        <v>1557</v>
       </c>
       <c r="I15" s="7">
-        <v>871612</v>
+        <v>1090072</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5695,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2562</v>
       </c>
       <c r="N15" s="7">
-        <v>1597892</v>
+        <v>2015817</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5712,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>484</v>
+        <v>1588</v>
       </c>
       <c r="D16" s="7">
-        <v>460652</v>
+        <v>1580302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>206</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="H16" s="7">
-        <v>421</v>
+        <v>1206</v>
       </c>
       <c r="I16" s="7">
-        <v>314039</v>
+        <v>1028192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>418</v>
+        <v>43</v>
       </c>
       <c r="M16" s="7">
-        <v>905</v>
+        <v>2794</v>
       </c>
       <c r="N16" s="7">
-        <v>774691</v>
+        <v>2608494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>419</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>420</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>421</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>521</v>
+        <v>1780</v>
       </c>
       <c r="D17" s="7">
-        <v>503626</v>
+        <v>1872746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>423</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>424</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
-        <v>1136</v>
+        <v>4145</v>
       </c>
       <c r="I17" s="7">
-        <v>830884</v>
+        <v>2624154</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>425</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>1657</v>
+        <v>5925</v>
       </c>
       <c r="N17" s="7">
-        <v>1334510</v>
+        <v>4496901</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3368</v>
       </c>
       <c r="D18" s="7">
-        <v>964278</v>
+        <v>3453048</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5835,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1557</v>
+        <v>5351</v>
       </c>
       <c r="I18" s="7">
-        <v>1144923</v>
+        <v>3652346</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5850,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2562</v>
+        <v>8719</v>
       </c>
       <c r="N18" s="7">
-        <v>2109201</v>
+        <v>7105395</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5866,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1588</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1618703</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1206</v>
-      </c>
-      <c r="I19" s="7">
-        <v>997784</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2794</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2616487</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1780</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1759459</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4145</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2798954</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5925</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4558414</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3378162</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5351</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3796738</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8719</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7174901</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
